--- a/Questions_2024-05-31.xlsx
+++ b/Questions_2024-05-31.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABMI_Official\RCDST_Jupyter_webapp_Official\notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cassi\Documents\GitHub\1_GitHub_AB-RCSC\Jupyter-web-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E4AE10-1C76-4D37-89EE-EE995B8712E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BD46F9-2E7A-4819-ACFB-F8609ACC5767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="825" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2898,11 +2898,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#.0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3380,365 +3387,365 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="27" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3750,84 +3757,87 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="27" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="27" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11161,14 +11171,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FFFBE4D5"/>
   </sheetPr>
   <dimension ref="A1:AF63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -11296,7 +11306,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="47.25" hidden="1">
+    <row r="2" spans="1:32" ht="47.25">
       <c r="A2" s="64" t="s">
         <v>345</v>
       </c>
@@ -11666,7 +11676,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="110.25" hidden="1">
+    <row r="6" spans="1:32" ht="110.25">
       <c r="A6" s="64" t="s">
         <v>345</v>
       </c>
@@ -11759,7 +11769,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="31.5" hidden="1">
+    <row r="7" spans="1:32" ht="31.5">
       <c r="A7" s="64" t="s">
         <v>345</v>
       </c>
@@ -12038,7 +12048,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="31.5" hidden="1">
+    <row r="10" spans="1:32" ht="31.5">
       <c r="A10" s="64" t="s">
         <v>345</v>
       </c>
@@ -12313,7 +12323,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="78.75" hidden="1">
+    <row r="13" spans="1:32" ht="78.75">
       <c r="A13" s="64" t="s">
         <v>345</v>
       </c>
@@ -12501,7 +12511,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="132" customFormat="1" ht="31.5" hidden="1">
+    <row r="15" spans="1:32" s="132" customFormat="1" ht="31.5">
       <c r="A15" s="131" t="s">
         <v>345</v>
       </c>
@@ -12778,7 +12788,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:32" s="132" customFormat="1" ht="47.25" hidden="1">
+    <row r="18" spans="1:32" s="132" customFormat="1" ht="47.25">
       <c r="A18" s="64" t="s">
         <v>345</v>
       </c>
@@ -12800,10 +12810,10 @@
       <c r="H18" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="I18" s="135" t="s">
-        <v>889</v>
-      </c>
-      <c r="J18" s="135"/>
+      <c r="I18" s="168" t="s">
+        <v>888</v>
+      </c>
+      <c r="J18" s="146"/>
       <c r="K18" s="67" t="s">
         <v>846</v>
       </c>
@@ -12869,7 +12879,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="78.75" hidden="1">
+    <row r="19" spans="1:32" ht="78.75">
       <c r="A19" s="64" t="s">
         <v>345</v>
       </c>
@@ -13511,7 +13521,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="47.25" hidden="1">
+    <row r="26" spans="1:32" ht="47.25">
       <c r="A26" s="64" t="s">
         <v>345</v>
       </c>
@@ -13602,7 +13612,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="47.25" hidden="1">
+    <row r="27" spans="1:32" ht="47.25">
       <c r="A27" s="64" t="s">
         <v>345</v>
       </c>
@@ -13693,7 +13703,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="94.5" hidden="1">
+    <row r="28" spans="1:32" ht="94.5">
       <c r="A28" s="64" t="s">
         <v>345</v>
       </c>
@@ -13784,7 +13794,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="31.5" hidden="1">
+    <row r="29" spans="1:32" ht="31.5">
       <c r="A29" s="64" t="s">
         <v>345</v>
       </c>
@@ -13875,7 +13885,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="110.25" hidden="1">
+    <row r="30" spans="1:32" ht="110.25">
       <c r="A30" s="64" t="s">
         <v>345</v>
       </c>
@@ -13964,7 +13974,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="78.75" hidden="1">
+    <row r="31" spans="1:32" ht="78.75">
       <c r="A31" s="64" t="s">
         <v>345</v>
       </c>
@@ -14055,7 +14065,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="31.5" hidden="1">
+    <row r="32" spans="1:32" ht="31.5">
       <c r="A32" s="64" t="s">
         <v>345</v>
       </c>
@@ -14146,7 +14156,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="31.5" hidden="1">
+    <row r="33" spans="1:32" ht="31.5">
       <c r="A33" s="64" t="s">
         <v>345</v>
       </c>
@@ -14237,7 +14247,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="31.5" hidden="1">
+    <row r="34" spans="1:32" ht="31.5">
       <c r="A34" s="64" t="s">
         <v>345</v>
       </c>
@@ -14328,7 +14338,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="15.75" hidden="1">
+    <row r="35" spans="1:32" ht="15.75">
       <c r="A35" s="64" t="s">
         <v>345</v>
       </c>
@@ -14419,7 +14429,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="47.25" hidden="1">
+    <row r="36" spans="1:32" ht="47.25">
       <c r="A36" s="64" t="s">
         <v>345</v>
       </c>
@@ -14512,7 +14522,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="94.5" hidden="1">
+    <row r="37" spans="1:32" ht="94.5">
       <c r="A37" s="64" t="s">
         <v>345</v>
       </c>
@@ -14605,7 +14615,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="78.75" hidden="1">
+    <row r="38" spans="1:32" ht="78.75">
       <c r="A38" s="64" t="s">
         <v>345</v>
       </c>
@@ -14698,7 +14708,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="47.25" hidden="1">
+    <row r="39" spans="1:32" ht="47.25">
       <c r="A39" s="64" t="s">
         <v>345</v>
       </c>
@@ -14791,7 +14801,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="47.25" hidden="1">
+    <row r="40" spans="1:32" ht="47.25">
       <c r="A40" s="64" t="s">
         <v>345</v>
       </c>
@@ -14884,7 +14894,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="78.75" hidden="1">
+    <row r="41" spans="1:32" ht="78.75">
       <c r="A41" s="64" t="s">
         <v>345</v>
       </c>
@@ -14977,7 +14987,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="31.5" hidden="1">
+    <row r="42" spans="1:32" ht="31.5">
       <c r="A42" s="64" t="s">
         <v>345</v>
       </c>
@@ -15068,7 +15078,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="47.25" hidden="1">
+    <row r="43" spans="1:32" ht="47.25">
       <c r="A43" s="64" t="s">
         <v>345</v>
       </c>
@@ -15161,7 +15171,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="31.5" hidden="1">
+    <row r="44" spans="1:32" ht="31.5">
       <c r="A44" s="64" t="s">
         <v>345</v>
       </c>
@@ -15252,7 +15262,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="78.75" hidden="1">
+    <row r="45" spans="1:32" ht="78.75">
       <c r="A45" s="64" t="s">
         <v>345</v>
       </c>
@@ -15343,7 +15353,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="47.25" hidden="1">
+    <row r="46" spans="1:32" ht="47.25">
       <c r="A46" s="64" t="s">
         <v>345</v>
       </c>
@@ -15434,7 +15444,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="31.5" hidden="1">
+    <row r="47" spans="1:32" ht="31.5">
       <c r="A47" s="64" t="s">
         <v>345</v>
       </c>
@@ -15525,7 +15535,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="47.25" hidden="1">
+    <row r="48" spans="1:32" ht="47.25">
       <c r="A48" s="64" t="s">
         <v>345</v>
       </c>
@@ -15616,7 +15626,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="31.5" hidden="1">
+    <row r="49" spans="1:32" ht="31.5">
       <c r="A49" s="64" t="s">
         <v>345</v>
       </c>
@@ -15707,7 +15717,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="47.25" hidden="1">
+    <row r="50" spans="1:32" ht="47.25">
       <c r="A50" s="64" t="s">
         <v>345</v>
       </c>
@@ -15798,7 +15808,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="31.5" hidden="1">
+    <row r="51" spans="1:32" ht="31.5">
       <c r="A51" s="64" t="s">
         <v>345</v>
       </c>
@@ -15984,7 +15994,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="31.5" hidden="1">
+    <row r="53" spans="1:32" ht="31.5">
       <c r="A53" s="64" t="s">
         <v>345</v>
       </c>
@@ -16075,7 +16085,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="47.25" hidden="1">
+    <row r="54" spans="1:32" ht="47.25">
       <c r="A54" s="64" t="s">
         <v>345</v>
       </c>
@@ -16166,7 +16176,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="63" hidden="1">
+    <row r="55" spans="1:32" ht="63">
       <c r="A55" s="64" t="s">
         <v>345</v>
       </c>
@@ -16259,7 +16269,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="47.25" hidden="1">
+    <row r="56" spans="1:32" ht="47.25">
       <c r="A56" s="64" t="s">
         <v>345</v>
       </c>
@@ -16352,7 +16362,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="57" spans="1:32" ht="63" hidden="1">
+    <row r="57" spans="1:32" ht="63">
       <c r="A57" s="64" t="s">
         <v>345</v>
       </c>
@@ -16445,7 +16455,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="47.25" hidden="1">
+    <row r="58" spans="1:32" ht="47.25">
       <c r="A58" s="64" t="s">
         <v>345</v>
       </c>
@@ -16538,7 +16548,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="59" spans="1:32" ht="47.25" hidden="1">
+    <row r="59" spans="1:32" ht="47.25">
       <c r="A59" s="64" t="s">
         <v>345</v>
       </c>
@@ -16631,7 +16641,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="78.75" hidden="1">
+    <row r="60" spans="1:32" ht="78.75">
       <c r="A60" s="64" t="s">
         <v>345</v>
       </c>
@@ -16724,7 +16734,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="47.25" hidden="1">
+    <row r="61" spans="1:32" ht="47.25">
       <c r="A61" s="64" t="s">
         <v>345</v>
       </c>
@@ -16815,7 +16825,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="63" hidden="1">
+    <row r="62" spans="1:32" ht="63">
       <c r="A62" s="64" t="s">
         <v>345</v>
       </c>
@@ -16908,7 +16918,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="47.25" hidden="1">
+    <row r="63" spans="1:32" ht="47.25">
       <c r="A63" s="64" t="s">
         <v>345</v>
       </c>
@@ -17002,16 +17012,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF63" xr:uid="{00000000-0001-0000-0600-000000000000}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="TRUE-PRI1"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF63">
-      <sortCondition ref="B1:B63"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:AF63" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
   <conditionalFormatting sqref="A1:H63">
     <cfRule type="cellIs" dxfId="70" priority="1" operator="equal">
       <formula>"-"</formula>
